--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bmp15-Bmpr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bmp15-Bmpr1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Bmp15</t>
   </si>
   <si>
     <t>Bmpr1b</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -531,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.4126986666666666</v>
+        <v>0.02770266666666667</v>
       </c>
       <c r="H2">
-        <v>1.238096</v>
+        <v>0.083108</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.05180130905700151</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.05180130905700151</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,22 +558,22 @@
         <v>4.73814</v>
       </c>
       <c r="O2">
-        <v>0.7235635290775982</v>
+        <v>0.8416031693647025</v>
       </c>
       <c r="P2">
-        <v>0.7235635290775982</v>
+        <v>0.8416031693647025</v>
       </c>
       <c r="Q2">
-        <v>0.6518080201599998</v>
+        <v>0.04375303768</v>
       </c>
       <c r="R2">
-        <v>5.866272181439999</v>
+        <v>0.39377733912</v>
       </c>
       <c r="S2">
-        <v>0.7235635290775982</v>
+        <v>0.04359614587961294</v>
       </c>
       <c r="T2">
-        <v>0.7235635290775982</v>
+        <v>0.04359614587961294</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -593,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.4126986666666666</v>
+        <v>0.02770266666666667</v>
       </c>
       <c r="H3">
-        <v>1.238096</v>
+        <v>0.083108</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.05180130905700151</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.05180130905700151</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -611,28 +614,276 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.6034</v>
+        <v>0.2972526666666667</v>
       </c>
       <c r="N3">
-        <v>1.8102</v>
+        <v>0.8917580000000001</v>
       </c>
       <c r="O3">
-        <v>0.2764364709224018</v>
+        <v>0.1583968306352975</v>
       </c>
       <c r="P3">
-        <v>0.2764364709224018</v>
+        <v>0.1583968306352975</v>
       </c>
       <c r="Q3">
-        <v>0.2490223754666666</v>
+        <v>0.008234691540444445</v>
       </c>
       <c r="R3">
-        <v>2.2412013792</v>
+        <v>0.074112223864</v>
       </c>
       <c r="S3">
-        <v>0.2764364709224018</v>
+        <v>0.008205163177388571</v>
       </c>
       <c r="T3">
-        <v>0.2764364709224018</v>
+        <v>0.008205163177388571</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.4126986666666667</v>
+      </c>
+      <c r="H4">
+        <v>1.238096</v>
+      </c>
+      <c r="I4">
+        <v>0.7717066171516261</v>
+      </c>
+      <c r="J4">
+        <v>0.7717066171516261</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1.57938</v>
+      </c>
+      <c r="N4">
+        <v>4.73814</v>
+      </c>
+      <c r="O4">
+        <v>0.8416031693647025</v>
+      </c>
+      <c r="P4">
+        <v>0.8416031693647025</v>
+      </c>
+      <c r="Q4">
+        <v>0.6518080201599999</v>
+      </c>
+      <c r="R4">
+        <v>5.86627218144</v>
+      </c>
+      <c r="S4">
+        <v>0.6494707348145217</v>
+      </c>
+      <c r="T4">
+        <v>0.6494707348145217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.4126986666666667</v>
+      </c>
+      <c r="H5">
+        <v>1.238096</v>
+      </c>
+      <c r="I5">
+        <v>0.7717066171516261</v>
+      </c>
+      <c r="J5">
+        <v>0.7717066171516261</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.2972526666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.8917580000000001</v>
+      </c>
+      <c r="O5">
+        <v>0.1583968306352975</v>
+      </c>
+      <c r="P5">
+        <v>0.1583968306352975</v>
+      </c>
+      <c r="Q5">
+        <v>0.1226757791964445</v>
+      </c>
+      <c r="R5">
+        <v>1.104082012768</v>
+      </c>
+      <c r="S5">
+        <v>0.1222358823371045</v>
+      </c>
+      <c r="T5">
+        <v>0.1222358823371045</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.09438566666666666</v>
+      </c>
+      <c r="H6">
+        <v>0.283157</v>
+      </c>
+      <c r="I6">
+        <v>0.1764920737913724</v>
+      </c>
+      <c r="J6">
+        <v>0.1764920737913724</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.57938</v>
+      </c>
+      <c r="N6">
+        <v>4.73814</v>
+      </c>
+      <c r="O6">
+        <v>0.8416031693647025</v>
+      </c>
+      <c r="P6">
+        <v>0.8416031693647025</v>
+      </c>
+      <c r="Q6">
+        <v>0.14907083422</v>
+      </c>
+      <c r="R6">
+        <v>1.34163750798</v>
+      </c>
+      <c r="S6">
+        <v>0.148536288670568</v>
+      </c>
+      <c r="T6">
+        <v>0.148536288670568</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.09438566666666666</v>
+      </c>
+      <c r="H7">
+        <v>0.283157</v>
+      </c>
+      <c r="I7">
+        <v>0.1764920737913724</v>
+      </c>
+      <c r="J7">
+        <v>0.1764920737913724</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.2972526666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.8917580000000001</v>
+      </c>
+      <c r="O7">
+        <v>0.1583968306352975</v>
+      </c>
+      <c r="P7">
+        <v>0.1583968306352975</v>
+      </c>
+      <c r="Q7">
+        <v>0.02805639111177777</v>
+      </c>
+      <c r="R7">
+        <v>0.252507520006</v>
+      </c>
+      <c r="S7">
+        <v>0.02795578512080444</v>
+      </c>
+      <c r="T7">
+        <v>0.02795578512080444</v>
       </c>
     </row>
   </sheetData>
